--- a/output/0/tRNA-Arg-TCT-2-1.xlsx
+++ b/output/0/tRNA-Arg-TCT-2-1.xlsx
@@ -17,19 +17,19 @@
     <t>chr17</t>
   </si>
   <si>
-    <t>8024249</t>
+    <t>8023688</t>
   </si>
   <si>
-    <t>8024272</t>
+    <t>8023711</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>+</t>
+    <t>-</t>
   </si>
   <si>
-    <t>8024269</t>
+    <t>8023691</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,22 +38,22 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>TGGCGCAATGGATAGCGCAT</t>
+    <t>TAGCGTGGCCGAGCGGTCTA</t>
   </si>
   <si>
-    <t>TGG</t>
+    <t>AGG</t>
   </si>
   <si>
     <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
   </si>
   <si>
-    <t>75% (58)</t>
+    <t>16% (36)</t>
   </si>
   <si>
-    <t>69% (54)</t>
+    <t>89% (68)</t>
   </si>
   <si>
-    <t>32</t>
+    <t>3</t>
   </si>
   <si>
     <t>70</t>
@@ -127,10 +127,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
